--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="H2">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="I2">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="J2">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N2">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O2">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P2">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q2">
-        <v>0.002729306782222222</v>
+        <v>0.001480172699444445</v>
       </c>
       <c r="R2">
-        <v>0.02456376104</v>
+        <v>0.013321554295</v>
       </c>
       <c r="S2">
-        <v>0.0001299402624806413</v>
+        <v>0.0001107270938897715</v>
       </c>
       <c r="T2">
-        <v>0.0001299402624806413</v>
+        <v>0.0001107270938897715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="H3">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="I3">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="J3">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>2.346137</v>
       </c>
       <c r="N3">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O3">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P3">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q3">
-        <v>0.6208785674973333</v>
+        <v>0.1385104541603333</v>
       </c>
       <c r="R3">
-        <v>5.587907107476</v>
+        <v>1.246594087443</v>
       </c>
       <c r="S3">
-        <v>0.02955956602413164</v>
+        <v>0.01036153421035432</v>
       </c>
       <c r="T3">
-        <v>0.02955956602413165</v>
+        <v>0.01036153421035432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="H4">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="I4">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="J4">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N4">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O4">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P4">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q4">
-        <v>0.06388439162355555</v>
+        <v>0.01759914811255556</v>
       </c>
       <c r="R4">
-        <v>0.574959524612</v>
+        <v>0.158392333013</v>
       </c>
       <c r="S4">
-        <v>0.003041488289279826</v>
+        <v>0.001316537270394423</v>
       </c>
       <c r="T4">
-        <v>0.003041488289279826</v>
+        <v>0.001316537270394423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="H5">
         <v>11.083477</v>
       </c>
       <c r="I5">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="J5">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N5">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O5">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P5">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q5">
-        <v>0.03810253093111111</v>
+        <v>0.0926270802838889</v>
       </c>
       <c r="R5">
-        <v>0.3429227783800001</v>
+        <v>0.8336437225550001</v>
       </c>
       <c r="S5">
-        <v>0.001814033110024425</v>
+        <v>0.00692914240289602</v>
       </c>
       <c r="T5">
-        <v>0.001814033110024425</v>
+        <v>0.006929142402896021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="H6">
         <v>11.083477</v>
       </c>
       <c r="I6">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="J6">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,25 +806,25 @@
         <v>2.346137</v>
       </c>
       <c r="N6">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O6">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P6">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q6">
-        <v>8.66778515944967</v>
+        <v>8.667785159449666</v>
       </c>
       <c r="R6">
         <v>78.01006643504701</v>
       </c>
       <c r="S6">
-        <v>0.4126667936638695</v>
+        <v>0.6484099196850333</v>
       </c>
       <c r="T6">
-        <v>0.4126667936638695</v>
+        <v>0.6484099196850335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="H7">
         <v>11.083477</v>
       </c>
       <c r="I7">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="J7">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N7">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O7">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P7">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q7">
-        <v>0.891859069748778</v>
+        <v>1.101329396064111</v>
       </c>
       <c r="R7">
-        <v>8.026731627739002</v>
+        <v>9.911964564577</v>
       </c>
       <c r="S7">
-        <v>0.04246074584717062</v>
+        <v>0.0823870103044913</v>
       </c>
       <c r="T7">
-        <v>0.04246074584717062</v>
+        <v>0.08238701030449132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="H8">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="I8">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="J8">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N8">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O8">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P8">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q8">
-        <v>0.04052112792</v>
+        <v>0.02992793149888889</v>
       </c>
       <c r="R8">
-        <v>0.36469015128</v>
+        <v>0.26935138349</v>
       </c>
       <c r="S8">
-        <v>0.001929180710733213</v>
+        <v>0.002238815026278964</v>
       </c>
       <c r="T8">
-        <v>0.001929180710733213</v>
+        <v>0.002238815026278965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="H9">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="I9">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="J9">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,25 +992,25 @@
         <v>2.346137</v>
       </c>
       <c r="N9">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O9">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P9">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q9">
-        <v>9.217981657548002</v>
+        <v>2.800572788260667</v>
       </c>
       <c r="R9">
-        <v>82.96183491793201</v>
+        <v>25.205155094346</v>
       </c>
       <c r="S9">
-        <v>0.4388612390243201</v>
+        <v>0.2095020980911673</v>
       </c>
       <c r="T9">
-        <v>0.4388612390243201</v>
+        <v>0.2095020980911674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="H10">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="I10">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="J10">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N10">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O10">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P10">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q10">
-        <v>0.9484707332760002</v>
+        <v>0.3558409767651111</v>
       </c>
       <c r="R10">
-        <v>8.536236599484001</v>
+        <v>3.202568790886</v>
       </c>
       <c r="S10">
-        <v>0.04515598497019935</v>
+        <v>0.0266193514168225</v>
       </c>
       <c r="T10">
-        <v>0.04515598497019935</v>
+        <v>0.0266193514168225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="H11">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="I11">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="J11">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01031333333333333</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N11">
-        <v>0.03094</v>
+        <v>0.075215</v>
       </c>
       <c r="O11">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="P11">
-        <v>0.003969945434421608</v>
+        <v>0.009392568139045224</v>
       </c>
       <c r="Q11">
-        <v>0.00203303646</v>
+        <v>0.001522368314444445</v>
       </c>
       <c r="R11">
-        <v>0.01829732814</v>
+        <v>0.01370131483</v>
       </c>
       <c r="S11">
-        <v>9.679135118332939E-05</v>
+        <v>0.0001138836159804676</v>
       </c>
       <c r="T11">
-        <v>9.679135118332939E-05</v>
+        <v>0.0001138836159804676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="H12">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="I12">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="J12">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,25 +1178,25 @@
         <v>2.346137</v>
       </c>
       <c r="N12">
-        <v>7.038411</v>
+        <v>7.038411000000001</v>
       </c>
       <c r="O12">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757153</v>
       </c>
       <c r="P12">
-        <v>0.9031062577580099</v>
+        <v>0.8789304647757155</v>
       </c>
       <c r="Q12">
-        <v>0.462486948399</v>
+        <v>0.1424590027313333</v>
       </c>
       <c r="R12">
-        <v>4.162382535590999</v>
+        <v>1.282131024582</v>
       </c>
       <c r="S12">
-        <v>0.02201865904568871</v>
+        <v>0.01065691278916039</v>
       </c>
       <c r="T12">
-        <v>0.02201865904568871</v>
+        <v>0.01065691278916039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="H13">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="I13">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="J13">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2414023333333334</v>
+        <v>0.2981003333333334</v>
       </c>
       <c r="N13">
-        <v>0.724207</v>
+        <v>0.894301</v>
       </c>
       <c r="O13">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="P13">
-        <v>0.09292379680756852</v>
+        <v>0.1116769670852394</v>
       </c>
       <c r="Q13">
-        <v>0.047586917763</v>
+        <v>0.01810085097355556</v>
       </c>
       <c r="R13">
-        <v>0.428282259867</v>
+        <v>0.162907658762</v>
       </c>
       <c r="S13">
-        <v>0.002265577700918728</v>
+        <v>0.001354068093531186</v>
       </c>
       <c r="T13">
-        <v>0.002265577700918728</v>
+        <v>0.001354068093531186</v>
       </c>
     </row>
   </sheetData>
